--- a/port_tickers.xlsx
+++ b/port_tickers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricky\Documents\Coding\aastock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BC7FC2-551C-43B8-821B-B4F85D8044EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6C7E7D-C245-4001-B54E-F3A7A4B13309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="1140" windowWidth="10290" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Ident (BB_TCM)</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>BABA US Equity</t>
+  </si>
+  <si>
+    <t>HSCEI Index</t>
+  </si>
+  <si>
+    <t>SHSZ300 Index</t>
   </si>
 </sst>
 </file>
@@ -450,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,6 +532,16 @@
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/port_tickers.xlsx
+++ b/port_tickers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricky\Documents\Coding\aastock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricky\Documents\Coding\tdp_prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6C7E7D-C245-4001-B54E-F3A7A4B13309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E35070-88E5-47BF-95DF-1A39F4DC49BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="1140" windowWidth="10290" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Ident (BB_TCM)</t>
   </si>
@@ -44,24 +44,12 @@
     <t>1060 HK Equity</t>
   </si>
   <si>
-    <t>2823 HK Equity</t>
-  </si>
-  <si>
     <t>293 HK Equity</t>
   </si>
   <si>
-    <t>3033 HK Equity</t>
-  </si>
-  <si>
-    <t>700 HK Equity</t>
-  </si>
-  <si>
     <t>763 HK Equity</t>
   </si>
   <si>
-    <t>857 HK Equity</t>
-  </si>
-  <si>
     <t>KWEB US Equity</t>
   </si>
   <si>
@@ -81,6 +69,24 @@
   </si>
   <si>
     <t>SHSZ300 Index</t>
+  </si>
+  <si>
+    <t>11 HK Equity</t>
+  </si>
+  <si>
+    <t>5 HK Equity</t>
+  </si>
+  <si>
+    <t>XIN9I Index</t>
+  </si>
+  <si>
+    <t>NDX Index</t>
+  </si>
+  <si>
+    <t>XUU1 Index</t>
+  </si>
+  <si>
+    <t>HCTV1 Index</t>
   </si>
 </sst>
 </file>
@@ -456,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +477,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -486,61 +492,71 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>

--- a/port_tickers.xlsx
+++ b/port_tickers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricky\Documents\Coding\tdp_prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E35070-88E5-47BF-95DF-1A39F4DC49BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF84A371-6248-4234-8771-D324E9AC8B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="1140" windowWidth="10290" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Ident (BB_TCM)</t>
   </si>
@@ -44,9 +44,6 @@
     <t>1060 HK Equity</t>
   </si>
   <si>
-    <t>293 HK Equity</t>
-  </si>
-  <si>
     <t>763 HK Equity</t>
   </si>
   <si>
@@ -87,6 +84,15 @@
   </si>
   <si>
     <t>HCTV1 Index</t>
+  </si>
+  <si>
+    <t>XUV1 Index</t>
+  </si>
+  <si>
+    <t>ESZ1 Index</t>
+  </si>
+  <si>
+    <t>HIU1 Index</t>
   </si>
 </sst>
 </file>
@@ -462,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +483,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -487,7 +493,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -497,67 +503,87 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -569,7 +595,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/port_tickers.xlsx
+++ b/port_tickers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricky\Documents\Coding\tdp_prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF84A371-6248-4234-8771-D324E9AC8B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A005F2D4-F5BB-4CB2-A40A-7949FAE95462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="1140" windowWidth="10290" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="84">
   <si>
     <t>Ident (BB_TCM)</t>
   </si>
@@ -41,21 +41,12 @@
     <t>600584 C1 Equity</t>
   </si>
   <si>
-    <t>1060 HK Equity</t>
-  </si>
-  <si>
     <t>763 HK Equity</t>
   </si>
   <si>
     <t>KWEB US Equity</t>
   </si>
   <si>
-    <t>LU US Equity</t>
-  </si>
-  <si>
-    <t>000333 C2 Equity</t>
-  </si>
-  <si>
     <t>600519 CH Equity</t>
   </si>
   <si>
@@ -93,6 +84,207 @@
   </si>
   <si>
     <t>HIU1 Index</t>
+  </si>
+  <si>
+    <t>300033 C2 Equity</t>
+  </si>
+  <si>
+    <t>000063 C2 Equity</t>
+  </si>
+  <si>
+    <t>1088 HK 09/29/21 C19 Equity</t>
+  </si>
+  <si>
+    <t>Position list</t>
+  </si>
+  <si>
+    <t>Fund / Book: SPRINGBOARD</t>
+  </si>
+  <si>
+    <t>Date: Today (08-Sep-2021)</t>
+  </si>
+  <si>
+    <t>Base Currency: USD</t>
+  </si>
+  <si>
+    <t>Last updated: 08-Sep-2021 19:24:18</t>
+  </si>
+  <si>
+    <t>Filters applied to report:</t>
+  </si>
+  <si>
+    <t>Position Type [Cash rolled up] EXCLUDE Stock Loan</t>
+  </si>
+  <si>
+    <t>Asset Class [Description] EXCLUDE Currency;Forward FX;Stock Loan</t>
+  </si>
+  <si>
+    <t>Long / Short / Flat [Flat Today] INCLUDE Long;Short;Flat Today</t>
+  </si>
+  <si>
+    <t>Uly Ident (BB_TCM)</t>
+  </si>
+  <si>
+    <t>000708 C2 Equity</t>
+  </si>
+  <si>
+    <t>001979 C2 Equity</t>
+  </si>
+  <si>
+    <t>002736 C2 Equity</t>
+  </si>
+  <si>
+    <t>300251 C2 Equity</t>
+  </si>
+  <si>
+    <t>300451 C2 Equity</t>
+  </si>
+  <si>
+    <t>300760 C2 Equity</t>
+  </si>
+  <si>
+    <t>600176 C1 Equity</t>
+  </si>
+  <si>
+    <t>600570 C1 Equity</t>
+  </si>
+  <si>
+    <t>600690 C1 Equity</t>
+  </si>
+  <si>
+    <t>600887 C1 Equity</t>
+  </si>
+  <si>
+    <t>601166 C1 Equity</t>
+  </si>
+  <si>
+    <t>601390 C1 Equity</t>
+  </si>
+  <si>
+    <t>601669 C1 Equity</t>
+  </si>
+  <si>
+    <t>601699 C1 Equity</t>
+  </si>
+  <si>
+    <t>1024 HK Equity</t>
+  </si>
+  <si>
+    <t>1088 HK Equity</t>
+  </si>
+  <si>
+    <t>1313 HK Equity</t>
+  </si>
+  <si>
+    <t>1347 HK Equity</t>
+  </si>
+  <si>
+    <t>9988 HK Equity</t>
+  </si>
+  <si>
+    <t>14897 HK Equity</t>
+  </si>
+  <si>
+    <t>1766 HK Equity</t>
+  </si>
+  <si>
+    <t>1776 HK Equity</t>
+  </si>
+  <si>
+    <t>1801 HK Equity</t>
+  </si>
+  <si>
+    <t>1810 HK Equity</t>
+  </si>
+  <si>
+    <t>2020 HK Equity</t>
+  </si>
+  <si>
+    <t>2196 HK Equity</t>
+  </si>
+  <si>
+    <t>23 HK Equity</t>
+  </si>
+  <si>
+    <t>2313 HK Equity</t>
+  </si>
+  <si>
+    <t>2331 HK Equity</t>
+  </si>
+  <si>
+    <t>2357 HK Equity</t>
+  </si>
+  <si>
+    <t>2359 HK Equity</t>
+  </si>
+  <si>
+    <t>257 HK Equity</t>
+  </si>
+  <si>
+    <t>2600 HK Equity</t>
+  </si>
+  <si>
+    <t>2688 HK Equity</t>
+  </si>
+  <si>
+    <t>27 HK Equity</t>
+  </si>
+  <si>
+    <t>2823 HK Equity</t>
+  </si>
+  <si>
+    <t>291 HK Equity</t>
+  </si>
+  <si>
+    <t>3690 HK Equity</t>
+  </si>
+  <si>
+    <t>390 HK Equity</t>
+  </si>
+  <si>
+    <t>6066 HK Equity</t>
+  </si>
+  <si>
+    <t>66 HK Equity</t>
+  </si>
+  <si>
+    <t>6862 HK Equity</t>
+  </si>
+  <si>
+    <t>6969 HK Equity</t>
+  </si>
+  <si>
+    <t>7226 HK Equity</t>
+  </si>
+  <si>
+    <t>916 HK Equity</t>
+  </si>
+  <si>
+    <t>968 HK Equity</t>
+  </si>
+  <si>
+    <t>9901 HK Equity</t>
+  </si>
+  <si>
+    <t>HSTECH Index</t>
+  </si>
+  <si>
+    <t>HCTU1 Index</t>
+  </si>
+  <si>
+    <t>NTES US Equity</t>
+  </si>
+  <si>
+    <t>PDD US Equity</t>
+  </si>
+  <si>
+    <t>TAL US Equity</t>
+  </si>
+  <si>
+    <t>VNET US Equity</t>
+  </si>
+  <si>
+    <t>ZTO US Equity</t>
   </si>
 </sst>
 </file>
@@ -468,10 +660,497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +1162,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -493,126 +1172,622 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/port_tickers.xlsx
+++ b/port_tickers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricky\Documents\Coding\tdp_prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A005F2D4-F5BB-4CB2-A40A-7949FAE95462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336A5DDB-1245-41CD-A608-39BA8A239A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16410" yWindow="1365" windowWidth="10290" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="84">
   <si>
     <t>Ident (BB_TCM)</t>
   </si>
@@ -660,488 +660,534 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>37</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>43</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>10</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>45</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>45</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>51</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C38" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>53</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>54</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>55</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>56</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>57</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>58</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C45" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>59</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C46" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>60</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C47" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>61</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C48" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>62</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>63</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C50" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>64</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C51" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>65</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C52" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>66</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C53" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>67</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C54" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>68</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C55" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>69</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C56" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>70</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C57" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>71</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C58" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>72</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C59" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>73</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C60" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>74</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C61" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>75</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C62" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>76</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C63" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>48</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C64" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>77</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C65" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>3</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C66" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>79</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C67" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>80</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C68" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>81</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C69" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>82</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C70" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>83</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C71" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1150,7 +1196,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
